--- a/results/mp/tinybert/corona/confidence/126/stop-words-topk-masking-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/126/stop-words-topk-masking-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="93">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,55 +40,70 @@
     <t>name</t>
   </si>
   <si>
+    <t>killed</t>
+  </si>
+  <si>
     <t>arrested</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
+    <t>died</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>died</t>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>forced</t>
   </si>
   <si>
     <t>warning</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>poor</t>
+    <t>fear</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>selfish</t>
   </si>
   <si>
     <t>shit</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>selfish</t>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>panic</t>
   </si>
   <si>
     <t>shortage</t>
@@ -97,21 +112,12 @@
     <t>sc</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>fears</t>
+    <t>drop</t>
   </si>
   <si>
     <t>isolation</t>
   </si>
   <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
     <t>fight</t>
   </si>
   <si>
@@ -127,15 +133,15 @@
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>nice</t>
   </si>
   <si>
@@ -145,121 +151,127 @@
     <t>great</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>positive</t>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>safe</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>safety</t>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>help</t>
   </si>
   <si>
     <t>ensure</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
     <t>increase</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>give</t>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>shopping</t>
   </si>
   <si>
     <t>online</t>
   </si>
   <si>
-    <t>shopping</t>
+    <t>new</t>
   </si>
   <si>
     <t>home</t>
@@ -271,10 +283,10 @@
     <t>grocery</t>
   </si>
   <si>
+    <t>supermarket</t>
+  </si>
+  <si>
     <t>consumer</t>
-  </si>
-  <si>
-    <t>supermarket</t>
   </si>
   <si>
     <t>19</t>
@@ -638,7 +650,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q54"/>
+  <dimension ref="A1:Q56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -646,10 +658,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -710,10 +722,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -728,16 +740,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K3">
-        <v>0.9696969696969697</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="L3">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="M3">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -760,10 +772,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -778,16 +790,16 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K4">
-        <v>0.9565217391304348</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L4">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="M4">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -799,7 +811,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -828,16 +840,16 @@
         <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K5">
-        <v>0.9491525423728814</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L5">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="M5">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -849,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -857,13 +869,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7777777777777778</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="C6">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -875,10 +887,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K6">
         <v>0.8888888888888888</v>
@@ -907,13 +919,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7692307692307693</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -925,10 +937,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K7">
         <v>0.8846153846153846</v>
@@ -957,13 +969,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.76</v>
+        <v>0.7054794520547946</v>
       </c>
       <c r="C8">
-        <v>19</v>
+        <v>206</v>
       </c>
       <c r="D8">
-        <v>19</v>
+        <v>206</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -975,19 +987,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>6</v>
+        <v>86</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K8">
-        <v>0.875</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -999,7 +1011,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1007,13 +1019,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6952054794520548</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="C9">
-        <v>203</v>
+        <v>20</v>
       </c>
       <c r="D9">
-        <v>203</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1025,19 +1037,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K9">
-        <v>0.8333333333333334</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L9">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="M9">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1049,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1057,13 +1069,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6896551724137931</v>
+        <v>0.68</v>
       </c>
       <c r="C10">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1075,19 +1087,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K10">
-        <v>0.8292682926829268</v>
+        <v>0.828125</v>
       </c>
       <c r="L10">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="M10">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1099,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1107,13 +1119,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.65</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="C11">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1125,19 +1137,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K11">
-        <v>0.8275862068965517</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1149,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1157,13 +1169,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5384615384615384</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="C12">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D12">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1175,19 +1187,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K12">
-        <v>0.825</v>
+        <v>0.8085106382978723</v>
       </c>
       <c r="L12">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="M12">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1199,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1207,13 +1219,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5</v>
+        <v>0.5526315789473685</v>
       </c>
       <c r="C13">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D13">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1225,19 +1237,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K13">
-        <v>0.8203125</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L13">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="M13">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1249,7 +1261,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1257,13 +1269,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4615384615384616</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="C14">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D14">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1275,19 +1287,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K14">
-        <v>0.803921568627451</v>
+        <v>0.7843137254901961</v>
       </c>
       <c r="L14">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M14">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1299,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1307,13 +1319,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4516129032258064</v>
+        <v>0.4324324324324325</v>
       </c>
       <c r="C15">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D15">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1325,19 +1337,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K15">
-        <v>0.7916666666666666</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="L15">
-        <v>19</v>
+        <v>111</v>
       </c>
       <c r="M15">
-        <v>19</v>
+        <v>111</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1349,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1357,13 +1369,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3783783783783784</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="C16">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D16">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1375,19 +1387,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K16">
-        <v>0.7816901408450704</v>
+        <v>0.775</v>
       </c>
       <c r="L16">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="M16">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1399,7 +1411,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1407,13 +1419,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.3733333333333334</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="C17">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D17">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1425,10 +1437,10 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K17">
         <v>0.7727272727272727</v>
@@ -1457,37 +1469,37 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3624161073825503</v>
+        <v>0.4</v>
       </c>
       <c r="C18">
+        <v>30</v>
+      </c>
+      <c r="D18">
+        <v>30</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>45</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D18">
-        <v>54</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>95</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="K18">
-        <v>0.746031746031746</v>
+        <v>0.7301587301587301</v>
       </c>
       <c r="L18">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M18">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1499,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1507,13 +1519,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3611111111111111</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="C19">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D19">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1525,19 +1537,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K19">
-        <v>0.7446808510638298</v>
+        <v>0.7264150943396226</v>
       </c>
       <c r="L19">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="M19">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1549,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1557,13 +1569,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3389830508474576</v>
+        <v>0.3758389261744967</v>
       </c>
       <c r="C20">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="D20">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1575,19 +1587,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K20">
-        <v>0.7368421052631579</v>
+        <v>0.725</v>
       </c>
       <c r="L20">
-        <v>14</v>
+        <v>116</v>
       </c>
       <c r="M20">
-        <v>14</v>
+        <v>116</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1599,7 +1611,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>5</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1607,13 +1619,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.328042328042328</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="C21">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="D21">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1625,19 +1637,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>127</v>
+        <v>23</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K21">
-        <v>0.7358490566037735</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L21">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="M21">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1649,7 +1661,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1657,13 +1669,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3197674418604651</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="C22">
-        <v>165</v>
+        <v>14</v>
       </c>
       <c r="D22">
-        <v>165</v>
+        <v>14</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1675,19 +1687,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>351</v>
+        <v>25</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K22">
-        <v>0.70625</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="L22">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="M22">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1699,7 +1711,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>47</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1707,13 +1719,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.2941176470588235</v>
+        <v>0.3376623376623377</v>
       </c>
       <c r="C23">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D23">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1725,19 +1737,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K23">
-        <v>0.7037037037037037</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="L23">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="M23">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1749,7 +1761,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1757,13 +1769,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.2745098039215687</v>
+        <v>0.3294573643410852</v>
       </c>
       <c r="C24">
-        <v>14</v>
+        <v>170</v>
       </c>
       <c r="D24">
-        <v>14</v>
+        <v>170</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1775,19 +1787,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>37</v>
+        <v>346</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K24">
-        <v>0.6875</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="L24">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="M24">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1799,7 +1811,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1807,13 +1819,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.2597402597402597</v>
+        <v>0.3220338983050847</v>
       </c>
       <c r="C25">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D25">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1825,19 +1837,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K25">
-        <v>0.6808510638297872</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="L25">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="M25">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1849,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1857,13 +1869,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.2203389830508475</v>
+        <v>0.3121693121693122</v>
       </c>
       <c r="C26">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="D26">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1875,19 +1887,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>46</v>
+        <v>130</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K26">
-        <v>0.6470588235294118</v>
+        <v>0.6161879895561357</v>
       </c>
       <c r="L26">
-        <v>22</v>
+        <v>236</v>
       </c>
       <c r="M26">
-        <v>22</v>
+        <v>236</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1899,7 +1911,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>12</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1907,13 +1919,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.2</v>
+        <v>0.288135593220339</v>
       </c>
       <c r="C27">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D27">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1925,19 +1937,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K27">
-        <v>0.6388888888888888</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="L27">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="M27">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1949,7 +1961,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1957,13 +1969,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1888888888888889</v>
+        <v>0.2549019607843137</v>
       </c>
       <c r="C28">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D28">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1975,19 +1987,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K28">
-        <v>0.6266318537859008</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L28">
-        <v>240</v>
+        <v>21</v>
       </c>
       <c r="M28">
-        <v>240</v>
+        <v>21</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1999,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>143</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2007,13 +2019,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.1865079365079365</v>
+        <v>0.2125</v>
       </c>
       <c r="C29">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="D29">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2025,19 +2037,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>205</v>
+        <v>63</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K29">
-        <v>0.6071428571428571</v>
+        <v>0.58</v>
       </c>
       <c r="L29">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="M29">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2049,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2057,13 +2069,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1072386058981233</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="C30">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D30">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2075,19 +2087,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>333</v>
+        <v>71</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K30">
-        <v>0.6</v>
+        <v>0.5794117647058824</v>
       </c>
       <c r="L30">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="M30">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2099,21 +2111,45 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>18</v>
+        <v>143</v>
       </c>
     </row>
     <row r="31" spans="1:17">
+      <c r="A31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="C31">
+        <v>48</v>
+      </c>
+      <c r="D31">
+        <v>48</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>204</v>
+      </c>
       <c r="J31" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K31">
-        <v>0.6</v>
+        <v>0.575</v>
       </c>
       <c r="L31">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M31">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2125,21 +2161,45 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:17">
+      <c r="A32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32">
+        <v>0.09115281501340483</v>
+      </c>
+      <c r="C32">
+        <v>34</v>
+      </c>
+      <c r="D32">
+        <v>34</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>339</v>
+      </c>
       <c r="J32" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K32">
-        <v>0.5735294117647058</v>
+        <v>0.5559322033898305</v>
       </c>
       <c r="L32">
-        <v>195</v>
+        <v>164</v>
       </c>
       <c r="M32">
-        <v>195</v>
+        <v>164</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2151,21 +2211,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>145</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K33">
-        <v>0.5600000000000001</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L33">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M33">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2177,21 +2237,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K34">
-        <v>0.5457627118644067</v>
+        <v>0.5280898876404494</v>
       </c>
       <c r="L34">
-        <v>161</v>
+        <v>47</v>
       </c>
       <c r="M34">
-        <v>161</v>
+        <v>47</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2203,21 +2263,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>134</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K35">
-        <v>0.5056179775280899</v>
+        <v>0.4644351464435146</v>
       </c>
       <c r="L35">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="M35">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2229,21 +2289,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>44</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K36">
-        <v>0.4769230769230769</v>
+        <v>0.453125</v>
       </c>
       <c r="L36">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M36">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2255,21 +2315,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K37">
-        <v>0.4476987447698745</v>
+        <v>0.4520547945205479</v>
       </c>
       <c r="L37">
-        <v>107</v>
+        <v>33</v>
       </c>
       <c r="M37">
-        <v>107</v>
+        <v>33</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2281,21 +2341,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>132</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K38">
-        <v>0.40625</v>
+        <v>0.4242424242424243</v>
       </c>
       <c r="L38">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="M38">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2307,21 +2367,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K39">
-        <v>0.3972602739726027</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="L39">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M39">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2333,21 +2393,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>44</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K40">
-        <v>0.3809523809523809</v>
+        <v>0.4186046511627907</v>
       </c>
       <c r="L40">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M40">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2359,47 +2419,47 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K41">
-        <v>0.3720930232558139</v>
+        <v>0.4146341463414634</v>
       </c>
       <c r="L41">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M41">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N41">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O41">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q41">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K42">
-        <v>0.3717948717948718</v>
+        <v>0.3714285714285714</v>
       </c>
       <c r="L42">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M42">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2411,21 +2471,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>49</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K43">
-        <v>0.3285714285714286</v>
+        <v>0.3692307692307693</v>
       </c>
       <c r="L43">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M43">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2437,21 +2497,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K44">
-        <v>0.325</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="L44">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M44">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2463,21 +2523,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>27</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K45">
-        <v>0.2131147540983606</v>
+        <v>0.3</v>
       </c>
       <c r="L45">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M45">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2489,21 +2549,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K46">
-        <v>0.08133971291866028</v>
+        <v>0.1102362204724409</v>
       </c>
       <c r="L46">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="M46">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2515,21 +2575,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>384</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K47">
-        <v>0.07692307692307693</v>
+        <v>0.0985576923076923</v>
       </c>
       <c r="L47">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="M47">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2541,47 +2601,47 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>384</v>
+        <v>375</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K48">
-        <v>0.07476635514018691</v>
+        <v>0.09330143540669857</v>
       </c>
       <c r="L48">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="M48">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="N48">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O48">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48">
-        <v>198</v>
+        <v>379</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K49">
-        <v>0.05257270693512305</v>
+        <v>0.08372093023255814</v>
       </c>
       <c r="L49">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="M49">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2593,21 +2653,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>847</v>
+        <v>197</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K50">
-        <v>0.03995560488346282</v>
+        <v>0.06046511627906977</v>
       </c>
       <c r="L50">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M50">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2619,47 +2679,47 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>865</v>
+        <v>202</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K51">
-        <v>0.03081664098613251</v>
+        <v>0.05145413870246085</v>
       </c>
       <c r="L51">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="M51">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="N51">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O51">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51">
-        <v>629</v>
+        <v>848</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K52">
-        <v>0.0265282583621684</v>
+        <v>0.03884572697003329</v>
       </c>
       <c r="L52">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="M52">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2671,59 +2731,111 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>844</v>
+        <v>866</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K53">
-        <v>0.02474323062558357</v>
+        <v>0.02768166089965398</v>
       </c>
       <c r="L53">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="M53">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="N53">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O53">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53">
-        <v>2089</v>
+        <v>843</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K54">
-        <v>0.01030595813204509</v>
+        <v>0.02469135802469136</v>
       </c>
       <c r="L54">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="M54">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="N54">
+        <v>0.89</v>
+      </c>
+      <c r="O54">
+        <v>0.11</v>
+      </c>
+      <c r="P54" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q54">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="55" spans="10:17">
+      <c r="J55" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K55">
+        <v>0.02242990654205607</v>
+      </c>
+      <c r="L55">
+        <v>48</v>
+      </c>
+      <c r="M55">
+        <v>51</v>
+      </c>
+      <c r="N55">
         <v>0.9399999999999999</v>
       </c>
-      <c r="O54">
+      <c r="O55">
         <v>0.06000000000000005</v>
       </c>
-      <c r="P54" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q54">
-        <v>3073</v>
+      <c r="P55" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q55">
+        <v>2092</v>
+      </c>
+    </row>
+    <row r="56" spans="10:17">
+      <c r="J56" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K56">
+        <v>0.01386202450032237</v>
+      </c>
+      <c r="L56">
+        <v>43</v>
+      </c>
+      <c r="M56">
+        <v>48</v>
+      </c>
+      <c r="N56">
+        <v>0.9</v>
+      </c>
+      <c r="O56">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="P56" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q56">
+        <v>3059</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/126/stop-words-topk-masking-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/126/stop-words-topk-masking-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="101">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,24 +49,27 @@
     <t>crude</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>died</t>
   </si>
   <si>
-    <t>fraud</t>
+    <t>forced</t>
   </si>
   <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
     <t>warning</t>
   </si>
   <si>
     <t>fear</t>
   </si>
   <si>
+    <t>shit</t>
+  </si>
+  <si>
     <t>collapse</t>
   </si>
   <si>
@@ -76,34 +79,34 @@
     <t>recession</t>
   </si>
   <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
     <t>shame</t>
   </si>
   <si>
-    <t>anxiety</t>
+    <t>low</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>panic</t>
   </si>
   <si>
     <t>fears</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
     <t>risk</t>
   </si>
   <si>
-    <t>panic</t>
+    <t>drop</t>
   </si>
   <si>
     <t>shortage</t>
@@ -112,18 +115,12 @@
     <t>sc</t>
   </si>
   <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>isolation</t>
+    <t>empty</t>
   </si>
   <si>
     <t>fight</t>
   </si>
   <si>
-    <t>empty</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
@@ -139,15 +136,21 @@
     <t>best</t>
   </si>
   <si>
+    <t>friend</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
     <t>nice</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
@@ -157,123 +160,135 @@
     <t>thank</t>
   </si>
   <si>
+    <t>healthy</t>
+  </si>
+  <si>
     <t>positive</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>safety</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>support</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
-    <t>friends</t>
+    <t>confidence</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
     <t>important</t>
   </si>
   <si>
-    <t>healthy</t>
+    <t>relief</t>
   </si>
   <si>
     <t>credit</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
     <t>energy</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>ensure</t>
+    <t>join</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
+    <t>dear</t>
+  </si>
+  <si>
     <t>sure</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>alert</t>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>increase</t>
   </si>
   <si>
     <t>save</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>increase</t>
+    <t>gt</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>essential</t>
+    <t>key</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>health</t>
   </si>
   <si>
     <t>shopping</t>
   </si>
   <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
     <t>home</t>
   </si>
   <si>
@@ -283,16 +298,25 @@
     <t>grocery</t>
   </si>
   <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
     <t>supermarket</t>
   </si>
   <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>19</t>
+    <t>food</t>
   </si>
   <si>
     <t>co</t>
+  </si>
+  <si>
+    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -650,7 +674,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q56"/>
+  <dimension ref="A1:Q65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -658,10 +682,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -740,16 +764,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K3">
-        <v>0.9782608695652174</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -761,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -790,7 +814,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K4">
         <v>0.9491525423728814</v>
@@ -819,13 +843,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9411764705882353</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="C5">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -837,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K5">
-        <v>0.9393939393939394</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="L5">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="M5">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -861,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -869,13 +893,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8076923076923077</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C6">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -887,19 +911,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K6">
-        <v>0.8888888888888888</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L6">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="M6">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -911,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -919,13 +943,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7777777777777778</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C7">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D7">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -937,19 +961,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K7">
-        <v>0.8846153846153846</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L7">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M7">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -961,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -969,13 +993,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7054794520547946</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="C8">
-        <v>206</v>
+        <v>21</v>
       </c>
       <c r="D8">
-        <v>206</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -987,19 +1011,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>86</v>
+        <v>8</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K8">
-        <v>0.8660714285714286</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L8">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="M8">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1011,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1019,13 +1043,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6896551724137931</v>
+        <v>0.708904109589041</v>
       </c>
       <c r="C9">
-        <v>20</v>
+        <v>207</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>207</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1037,19 +1061,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K9">
-        <v>0.8414634146341463</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L9">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="M9">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1061,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1090,16 +1114,16 @@
         <v>8</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K10">
-        <v>0.828125</v>
+        <v>0.875</v>
       </c>
       <c r="L10">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="M10">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1111,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1140,16 +1164,16 @@
         <v>11</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K11">
-        <v>0.8103448275862069</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L11">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="M11">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1161,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1169,13 +1193,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5666666666666667</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="C12">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D12">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1187,19 +1211,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K12">
-        <v>0.8085106382978723</v>
+        <v>0.8203125</v>
       </c>
       <c r="L12">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="M12">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1211,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1219,13 +1243,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5526315789473685</v>
+        <v>0.5</v>
       </c>
       <c r="C13">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D13">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1237,19 +1261,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K13">
-        <v>0.8055555555555556</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L13">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="M13">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1261,7 +1285,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1269,13 +1293,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4838709677419355</v>
+        <v>0.5</v>
       </c>
       <c r="C14">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D14">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1287,19 +1311,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K14">
-        <v>0.7843137254901961</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L14">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="M14">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1319,37 +1343,37 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4324324324324325</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="C15">
+        <v>15</v>
+      </c>
+      <c r="D15">
+        <v>15</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15">
         <v>16</v>
       </c>
-      <c r="D15">
-        <v>16</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>21</v>
-      </c>
       <c r="J15" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K15">
-        <v>0.7816901408450704</v>
+        <v>0.8083333333333333</v>
       </c>
       <c r="L15">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="M15">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1361,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1369,13 +1393,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4193548387096774</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C16">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D16">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1387,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K16">
-        <v>0.775</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="L16">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="M16">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1411,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1419,37 +1443,37 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4117647058823529</v>
+        <v>0.4324324324324325</v>
       </c>
       <c r="C17">
+        <v>16</v>
+      </c>
+      <c r="D17">
+        <v>16</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17">
         <v>21</v>
       </c>
-      <c r="D17">
-        <v>21</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>30</v>
-      </c>
       <c r="J17" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K17">
-        <v>0.7727272727272727</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L17">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M17">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1469,13 +1493,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4</v>
+        <v>0.4054054054054054</v>
       </c>
       <c r="C18">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D18">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1487,19 +1511,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K18">
-        <v>0.7301587301587301</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="L18">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="M18">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1511,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1519,13 +1543,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3846153846153846</v>
+        <v>0.3892617449664429</v>
       </c>
       <c r="C19">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="D19">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1537,19 +1561,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K19">
-        <v>0.7264150943396226</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L19">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="M19">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1561,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>29</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1569,13 +1593,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3758389261744967</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="C20">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="D20">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1587,19 +1611,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>93</v>
+        <v>23</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K20">
-        <v>0.725</v>
+        <v>0.75</v>
       </c>
       <c r="L20">
-        <v>116</v>
+        <v>21</v>
       </c>
       <c r="M20">
-        <v>116</v>
+        <v>21</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1611,7 +1635,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>44</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1619,13 +1643,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3611111111111111</v>
+        <v>0.36</v>
       </c>
       <c r="C21">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D21">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1637,19 +1661,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K21">
-        <v>0.6785714285714286</v>
+        <v>0.746031746031746</v>
       </c>
       <c r="L21">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="M21">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1661,7 +1685,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1669,13 +1693,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.358974358974359</v>
+        <v>0.3217054263565892</v>
       </c>
       <c r="C22">
-        <v>14</v>
+        <v>166</v>
       </c>
       <c r="D22">
-        <v>14</v>
+        <v>166</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1687,19 +1711,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>25</v>
+        <v>350</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K22">
-        <v>0.6595744680851063</v>
+        <v>0.7450980392156863</v>
       </c>
       <c r="L22">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="M22">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1711,7 +1735,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1719,13 +1743,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3376623376623377</v>
+        <v>0.3137254901960784</v>
       </c>
       <c r="C23">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D23">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1737,31 +1761,31 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K23">
-        <v>0.6444444444444445</v>
+        <v>0.7264150943396226</v>
       </c>
       <c r="L23">
+        <v>77</v>
+      </c>
+      <c r="M23">
+        <v>77</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
         <v>29</v>
-      </c>
-      <c r="M23">
-        <v>29</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1769,13 +1793,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3294573643410852</v>
+        <v>0.3116883116883117</v>
       </c>
       <c r="C24">
-        <v>170</v>
+        <v>24</v>
       </c>
       <c r="D24">
-        <v>170</v>
+        <v>24</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1787,19 +1811,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>346</v>
+        <v>53</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K24">
-        <v>0.6296296296296297</v>
+        <v>0.71875</v>
       </c>
       <c r="L24">
-        <v>17</v>
+        <v>115</v>
       </c>
       <c r="M24">
-        <v>17</v>
+        <v>115</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1811,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1819,13 +1843,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3220338983050847</v>
+        <v>0.288135593220339</v>
       </c>
       <c r="C25">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D25">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1837,19 +1861,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K25">
-        <v>0.6176470588235294</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="L25">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M25">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1861,7 +1885,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1869,13 +1893,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3121693121693122</v>
+        <v>0.2711864406779661</v>
       </c>
       <c r="C26">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="D26">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1887,19 +1911,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>130</v>
+        <v>43</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K26">
-        <v>0.6161879895561357</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L26">
-        <v>236</v>
+        <v>64</v>
       </c>
       <c r="M26">
-        <v>236</v>
+        <v>64</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1911,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>147</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1919,13 +1943,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.288135593220339</v>
+        <v>0.2698412698412698</v>
       </c>
       <c r="C27">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="D27">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1937,19 +1961,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>42</v>
+        <v>138</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K27">
-        <v>0.6041666666666666</v>
+        <v>0.625</v>
       </c>
       <c r="L27">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M27">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1961,7 +1985,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1969,13 +1993,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2549019607843137</v>
+        <v>0.1888888888888889</v>
       </c>
       <c r="C28">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D28">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1987,19 +2011,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K28">
-        <v>0.5833333333333334</v>
+        <v>0.6214099216710183</v>
       </c>
       <c r="L28">
-        <v>21</v>
+        <v>238</v>
       </c>
       <c r="M28">
-        <v>21</v>
+        <v>238</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2011,7 +2035,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>15</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2019,13 +2043,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.2125</v>
+        <v>0.175</v>
       </c>
       <c r="C29">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D29">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2037,19 +2061,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K29">
-        <v>0.58</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="L29">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="M29">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2061,7 +2085,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2069,13 +2093,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.2111111111111111</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C30">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D30">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2087,19 +2111,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>71</v>
+        <v>210</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K30">
-        <v>0.5794117647058824</v>
+        <v>0.6</v>
       </c>
       <c r="L30">
-        <v>197</v>
+        <v>27</v>
       </c>
       <c r="M30">
-        <v>197</v>
+        <v>27</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2111,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>143</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2119,13 +2143,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.1904761904761905</v>
+        <v>0.09919571045576407</v>
       </c>
       <c r="C31">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="D31">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2137,69 +2161,45 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>204</v>
+        <v>336</v>
       </c>
       <c r="J31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K31">
+        <v>0.6</v>
+      </c>
+      <c r="L31">
+        <v>30</v>
+      </c>
+      <c r="M31">
+        <v>30</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="J32" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="K31">
-        <v>0.575</v>
-      </c>
-      <c r="L31">
-        <v>23</v>
-      </c>
-      <c r="M31">
-        <v>23</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="A32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32">
-        <v>0.09115281501340483</v>
-      </c>
-      <c r="C32">
-        <v>34</v>
-      </c>
-      <c r="D32">
-        <v>34</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>339</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="K32">
-        <v>0.5559322033898305</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="L32">
-        <v>164</v>
+        <v>19</v>
       </c>
       <c r="M32">
-        <v>164</v>
+        <v>19</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2211,21 +2211,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>131</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K33">
-        <v>0.5416666666666666</v>
+        <v>0.5558823529411765</v>
       </c>
       <c r="L33">
-        <v>13</v>
+        <v>189</v>
       </c>
       <c r="M33">
-        <v>13</v>
+        <v>189</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2237,21 +2237,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>11</v>
+        <v>151</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K34">
-        <v>0.5280898876404494</v>
+        <v>0.5389830508474577</v>
       </c>
       <c r="L34">
-        <v>47</v>
+        <v>159</v>
       </c>
       <c r="M34">
-        <v>47</v>
+        <v>159</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2263,21 +2263,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>42</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K35">
-        <v>0.4644351464435146</v>
+        <v>0.525</v>
       </c>
       <c r="L35">
-        <v>111</v>
+        <v>21</v>
       </c>
       <c r="M35">
-        <v>111</v>
+        <v>21</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2289,21 +2289,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>128</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K36">
-        <v>0.453125</v>
+        <v>0.5116279069767442</v>
       </c>
       <c r="L36">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="M36">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2315,21 +2315,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K37">
-        <v>0.4520547945205479</v>
+        <v>0.4943820224719101</v>
       </c>
       <c r="L37">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="M37">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2341,41 +2341,41 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K38">
-        <v>0.4242424242424243</v>
+        <v>0.4878048780487805</v>
       </c>
       <c r="L38">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M38">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="N38">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O38">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K39">
-        <v>0.4193548387096774</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="L39">
         <v>13</v>
@@ -2393,21 +2393,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K40">
-        <v>0.4186046511627907</v>
+        <v>0.4644351464435146</v>
       </c>
       <c r="L40">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="M40">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2419,47 +2419,47 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>25</v>
+        <v>128</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K41">
-        <v>0.4146341463414634</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="L41">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M41">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N41">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O41">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K42">
-        <v>0.3714285714285714</v>
+        <v>0.453125</v>
       </c>
       <c r="L42">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M42">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2471,21 +2471,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K43">
-        <v>0.3692307692307693</v>
+        <v>0.4520547945205479</v>
       </c>
       <c r="L43">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="M43">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2497,15 +2497,15 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K44">
-        <v>0.358974358974359</v>
+        <v>0.4307692307692308</v>
       </c>
       <c r="L44">
         <v>28</v>
@@ -2523,21 +2523,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K45">
-        <v>0.3</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="L45">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="M45">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2549,15 +2549,15 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K46">
-        <v>0.1102362204724409</v>
+        <v>0.4</v>
       </c>
       <c r="L46">
         <v>14</v>
@@ -2575,21 +2575,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>113</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K47">
-        <v>0.0985576923076923</v>
+        <v>0.35</v>
       </c>
       <c r="L47">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="M47">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2601,21 +2601,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>375</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K48">
-        <v>0.09330143540669857</v>
+        <v>0.3428571428571429</v>
       </c>
       <c r="L48">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="M48">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2627,21 +2627,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>379</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K49">
-        <v>0.08372093023255814</v>
+        <v>0.2978723404255319</v>
       </c>
       <c r="L49">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M49">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2653,21 +2653,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>197</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K50">
-        <v>0.06046511627906977</v>
+        <v>0.2786885245901639</v>
       </c>
       <c r="L50">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M50">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2679,21 +2679,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>202</v>
+        <v>44</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K51">
-        <v>0.05145413870246085</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="L51">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="M51">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2705,21 +2705,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>848</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K52">
-        <v>0.03884572697003329</v>
+        <v>0.1148325358851675</v>
       </c>
       <c r="L52">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="M52">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2731,111 +2731,345 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>866</v>
+        <v>370</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K53">
-        <v>0.02768166089965398</v>
+        <v>0.1074766355140187</v>
       </c>
       <c r="L53">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M53">
         <v>24</v>
       </c>
       <c r="N53">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O53">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q53">
-        <v>843</v>
+        <v>191</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K54">
-        <v>0.02469135802469136</v>
+        <v>0.1068702290076336</v>
       </c>
       <c r="L54">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M54">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N54">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O54">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54">
-        <v>632</v>
+        <v>117</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K55">
-        <v>0.02242990654205607</v>
+        <v>0.0985576923076923</v>
       </c>
       <c r="L55">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="M55">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="N55">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O55">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55">
-        <v>2092</v>
+        <v>375</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K56">
+        <v>0.09302325581395349</v>
+      </c>
+      <c r="L56">
+        <v>20</v>
+      </c>
+      <c r="M56">
+        <v>20</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="57" spans="10:17">
+      <c r="J57" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="K56">
-        <v>0.01386202450032237</v>
-      </c>
-      <c r="L56">
+      <c r="K57">
+        <v>0.06040268456375839</v>
+      </c>
+      <c r="L57">
+        <v>54</v>
+      </c>
+      <c r="M57">
+        <v>54</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="58" spans="10:17">
+      <c r="J58" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K58">
+        <v>0.04772475027746948</v>
+      </c>
+      <c r="L58">
         <v>43</v>
       </c>
-      <c r="M56">
-        <v>48</v>
-      </c>
-      <c r="N56">
-        <v>0.9</v>
-      </c>
-      <c r="O56">
-        <v>0.09999999999999998</v>
-      </c>
-      <c r="P56" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q56">
-        <v>3059</v>
+      <c r="M58">
+        <v>43</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="59" spans="10:17">
+      <c r="J59" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K59">
+        <v>0.0308641975308642</v>
+      </c>
+      <c r="L59">
+        <v>15</v>
+      </c>
+      <c r="M59">
+        <v>15</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="60" spans="10:17">
+      <c r="J60" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K60">
+        <v>0.0304022450888681</v>
+      </c>
+      <c r="L60">
+        <v>65</v>
+      </c>
+      <c r="M60">
+        <v>70</v>
+      </c>
+      <c r="N60">
+        <v>0.93</v>
+      </c>
+      <c r="O60">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P60" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q60">
+        <v>2073</v>
+      </c>
+    </row>
+    <row r="61" spans="10:17">
+      <c r="J61" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K61">
+        <v>0.02472952086553323</v>
+      </c>
+      <c r="L61">
+        <v>16</v>
+      </c>
+      <c r="M61">
+        <v>19</v>
+      </c>
+      <c r="N61">
+        <v>0.84</v>
+      </c>
+      <c r="O61">
+        <v>0.16</v>
+      </c>
+      <c r="P61" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q61">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="62" spans="10:17">
+      <c r="J62" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K62">
+        <v>0.0196078431372549</v>
+      </c>
+      <c r="L62">
+        <v>17</v>
+      </c>
+      <c r="M62">
+        <v>17</v>
+      </c>
+      <c r="N62">
+        <v>1</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="63" spans="10:17">
+      <c r="J63" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K63">
+        <v>0.01859504132231405</v>
+      </c>
+      <c r="L63">
+        <v>18</v>
+      </c>
+      <c r="M63">
+        <v>18</v>
+      </c>
+      <c r="N63">
+        <v>1</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="64" spans="10:17">
+      <c r="J64" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K64">
+        <v>0.01610824742268041</v>
+      </c>
+      <c r="L64">
+        <v>50</v>
+      </c>
+      <c r="M64">
+        <v>53</v>
+      </c>
+      <c r="N64">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O64">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P64" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q64">
+        <v>3054</v>
+      </c>
+    </row>
+    <row r="65" spans="10:17">
+      <c r="J65" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K65">
+        <v>0.004066312167657179</v>
+      </c>
+      <c r="L65">
+        <v>13</v>
+      </c>
+      <c r="M65">
+        <v>17</v>
+      </c>
+      <c r="N65">
+        <v>0.76</v>
+      </c>
+      <c r="O65">
+        <v>0.24</v>
+      </c>
+      <c r="P65" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q65">
+        <v>3184</v>
       </c>
     </row>
   </sheetData>
